--- a/Multiknapsack/results/fixed_recourse/multicut/M100_N200_T0_a75_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/multicut/M100_N200_T0_a75_ccg.xlsx
@@ -471,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-4200.1058738280835</v>
+        <v>-1737.6437622303326</v>
       </c>
       <c r="C2">
-        <v>9.620328814</v>
+        <v>494.973067135</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -483,16 +483,16 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H2">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4172.7930095692755</v>
+        <v>-1740.0765203442552</v>
       </c>
       <c r="C3">
-        <v>0.378704537</v>
+        <v>1815.573542726</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -512,16 +512,16 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H3">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,10 +529,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-4198.061469013669</v>
+        <v>-1740.3063680164755</v>
       </c>
       <c r="C4">
-        <v>0.345452232</v>
+        <v>631.482673856</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -541,16 +541,16 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H4">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,10 +558,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-4184.880359518008</v>
+        <v>-1735.9954971019556</v>
       </c>
       <c r="C5">
-        <v>0.268192952</v>
+        <v>699.179153258</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -570,16 +570,16 @@
         <v>14</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H5">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-4181.370874039598</v>
+        <v>-1744.89620665423</v>
       </c>
       <c r="C6">
-        <v>0.325993288</v>
+        <v>519.244673681</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H6">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I6">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-4160.305886685349</v>
+        <v>-1725.3743202503338</v>
       </c>
       <c r="C7">
-        <v>0.32057508</v>
+        <v>631.764736205</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -628,16 +628,16 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H7">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-4191.464355346141</v>
+        <v>-1739.2480133361746</v>
       </c>
       <c r="C8">
-        <v>0.314431641</v>
+        <v>558.887804942</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -657,16 +657,16 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H8">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I8">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-4152.452588277491</v>
+        <v>-1723.387446692379</v>
       </c>
       <c r="C9">
-        <v>0.346465102</v>
+        <v>716.210385767</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -686,16 +686,16 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G9">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H9">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I9">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -703,10 +703,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-4171.712295451467</v>
+        <v>-1733.6804531563703</v>
       </c>
       <c r="C10">
-        <v>0.335524151</v>
+        <v>624.165352763</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -715,16 +715,16 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H10">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -732,10 +732,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-4207.280722184274</v>
+        <v>-1746.9903591802204</v>
       </c>
       <c r="C11">
-        <v>0.239283412</v>
+        <v>969.963798802</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -744,16 +744,16 @@
         <v>14</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G11">
-        <v>1302</v>
+        <v>110400</v>
       </c>
       <c r="H11">
-        <v>1205</v>
+        <v>120500</v>
       </c>
       <c r="I11">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +797,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.06675935905444336</v>
+        <v>0.13408658150585936</v>
       </c>
       <c r="E2">
-        <v>26.21473</v>
+        <v>194.01011</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -808,13 +808,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4171.712295451467</v>
+        <v>-1733.6804531563703</v>
       </c>
       <c r="C3">
-        <v>6.54044169894856e-14</v>
+        <v>0.07333183421091723</v>
       </c>
       <c r="D3">
-        <v>0.13739049100830078</v>
+        <v>617.3412489941653</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -861,10 +861,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.045202380794433596</v>
+        <v>0.07894882409387206</v>
       </c>
       <c r="E2">
-        <v>24.12414</v>
+        <v>188.63784</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -872,13 +872,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4207.280722184274</v>
+        <v>-1746.9903591802204</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.01941701336526609</v>
       </c>
       <c r="D3">
-        <v>0.09535083527819824</v>
+        <v>962.779364893814</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -925,10 +925,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.8372183550992431</v>
+        <v>0.9486819596269531</v>
       </c>
       <c r="E2">
-        <v>24.51685</v>
+        <v>190.71448</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -936,13 +936,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4200.1058738280835</v>
+        <v>-1737.6437622303326</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.07531018375979386</v>
       </c>
       <c r="D3">
-        <v>0.12111648401330566</v>
+        <v>479.960756343875</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -989,10 +989,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.0711789727779541</v>
+        <v>0.07435619636791992</v>
       </c>
       <c r="E2">
-        <v>24.78932</v>
+        <v>192.02891</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4172.7930095692755</v>
+        <v>-1740.0765203442552</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.0796673759901016</v>
       </c>
       <c r="D3">
-        <v>0.14285273184973146</v>
+        <v>1809.3381828707695</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1053,10 +1053,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.09844049980847168</v>
+        <v>0.0870287155102539</v>
       </c>
       <c r="E2">
-        <v>24.78663</v>
+        <v>191.23263</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1064,13 +1064,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4198.061469013669</v>
+        <v>-1740.3063680164755</v>
       </c>
       <c r="C3">
-        <v>4.332927035423288e-14</v>
+        <v>0.04341400505932843</v>
       </c>
       <c r="D3">
-        <v>0.12731311374365234</v>
+        <v>625.0491888040209</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1117,10 +1117,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.07417933891223144</v>
+        <v>0.11628421490698242</v>
       </c>
       <c r="E2">
-        <v>25.34651</v>
+        <v>192.98878</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1128,13 +1128,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4184.880359518008</v>
+        <v>-1735.9954971019556</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.08037126701212952</v>
       </c>
       <c r="D3">
-        <v>0.09511269731396485</v>
+        <v>692.3040742149391</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1181,10 +1181,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.060875352245727536</v>
+        <v>0.09610155913867187</v>
       </c>
       <c r="E2">
-        <v>23.23854</v>
+        <v>194.45357</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1192,13 +1192,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4181.370874039598</v>
+        <v>-1744.89620665423</v>
       </c>
       <c r="C3">
-        <v>6.525333885732904e-14</v>
+        <v>0.09660409261779686</v>
       </c>
       <c r="D3">
-        <v>0.12600688482336425</v>
+        <v>513.072218979344</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1245,10 +1245,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.07258617829162597</v>
+        <v>0.08517435643371582</v>
       </c>
       <c r="E2">
-        <v>26.09097</v>
+        <v>191.51613</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4160.305886685349</v>
+        <v>-1725.3743202503338</v>
       </c>
       <c r="C3">
-        <v>2.186124594068083e-14</v>
+        <v>0.07352645462302244</v>
       </c>
       <c r="D3">
-        <v>0.13187250442944337</v>
+        <v>625.4828875568791</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1309,10 +1309,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.06335371748291016</v>
+        <v>0.1123842785354004</v>
       </c>
       <c r="E2">
-        <v>23.60936</v>
+        <v>191.48952</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1320,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4191.464355346141</v>
+        <v>-1739.2480133361746</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.013677691289950836</v>
       </c>
       <c r="D3">
-        <v>0.11565951766271973</v>
+        <v>552.6299192227849</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1373,10 +1373,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.07254116762609863</v>
+        <v>0.10618158520092773</v>
       </c>
       <c r="E2">
-        <v>24.49224</v>
+        <v>194.89722</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1384,13 +1384,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-4152.452588277491</v>
+        <v>-1723.387446692379</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.12274300725048828</v>
+        <v>709.1755555494638</v>
       </c>
       <c r="E3">
         <v>0.0</v>
